--- a/ThugLifeKeyboard/tupac_lyrics.xlsx
+++ b/ThugLifeKeyboard/tupac_lyrics.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26505"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/freddyhernandezjr/Desktop/TLKeyboardContainer/ThugLifeKeyboard/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25180" windowHeight="8800" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33060" windowHeight="19140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="69">
   <si>
     <t>lyric</t>
   </si>
@@ -114,9 +119,6 @@
     <t>In this society where only getting cash counts</t>
   </si>
   <si>
-    <t>All the Hennessy and weed can't hid the pain I feel inside</t>
-  </si>
-  <si>
     <t>Never Call U Bitch Again</t>
   </si>
   <si>
@@ -223,6 +225,12 @@
   </si>
   <si>
     <t>2 of Amerikaz Most Wanted</t>
+  </si>
+  <si>
+    <t>Hard Knock Life</t>
+  </si>
+  <si>
+    <t>All the Hennessy and weed can't hide the pain I feel inside</t>
   </si>
 </sst>
 </file>
@@ -293,6 +301,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -620,11 +633,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F160"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="110.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" customWidth="1"/>
@@ -632,7 +645,7 @@
     <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23">
+    <row r="1" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -648,76 +661,76 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="23">
+    <row r="2" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="23">
+    <row r="3" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="23">
+    <row r="4" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="23">
+    <row r="5" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="23">
+    <row r="6" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
@@ -728,12 +741,12 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="23">
+    <row r="7" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>9</v>
@@ -744,12 +757,12 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="23">
+    <row r="8" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>9</v>
@@ -760,12 +773,12 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="23">
+    <row r="9" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>9</v>
@@ -776,12 +789,12 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" ht="23">
+    <row r="10" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>9</v>
@@ -792,12 +805,12 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" ht="23">
+    <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>9</v>
@@ -808,12 +821,12 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" ht="23">
+    <row r="12" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>9</v>
@@ -824,12 +837,12 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" ht="23">
+    <row r="13" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>9</v>
@@ -840,12 +853,12 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" ht="23">
+    <row r="14" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>9</v>
@@ -856,12 +869,12 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" ht="23">
+    <row r="15" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>9</v>
@@ -872,12 +885,12 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" ht="23">
+    <row r="16" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>9</v>
@@ -888,12 +901,12 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" ht="23">
+    <row r="17" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>9</v>
@@ -904,12 +917,12 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" ht="23">
+    <row r="18" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>9</v>
@@ -920,12 +933,12 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" ht="23">
+    <row r="19" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>9</v>
@@ -936,12 +949,12 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" ht="23">
+    <row r="20" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>9</v>
@@ -952,12 +965,12 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" ht="23">
+    <row r="21" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>27</v>
@@ -968,12 +981,12 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" ht="23">
+    <row r="22" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>27</v>
@@ -984,12 +997,12 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" ht="23">
+    <row r="23" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>27</v>
@@ -1000,12 +1013,12 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" ht="23">
+    <row r="24" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>27</v>
@@ -1016,12 +1029,12 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" ht="23">
+    <row r="25" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>27</v>
@@ -1032,15 +1045,15 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" ht="23">
+    <row r="26" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="C26" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>10</v>
@@ -1048,15 +1061,15 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6" ht="23">
+    <row r="27" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>10</v>
@@ -1064,15 +1077,15 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6" ht="23">
+    <row r="28" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>10</v>
@@ -1080,15 +1093,15 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" ht="23">
+    <row r="29" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>10</v>
@@ -1096,15 +1109,15 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" ht="23">
+    <row r="30" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>10</v>
@@ -1112,15 +1125,15 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" ht="23">
+    <row r="31" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>10</v>
@@ -1128,15 +1141,15 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" ht="23">
+    <row r="32" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>10</v>
@@ -1144,15 +1157,15 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:6" ht="23">
+    <row r="33" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>10</v>
@@ -1160,15 +1173,15 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" ht="23">
+    <row r="34" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>10</v>
@@ -1176,247 +1189,247 @@
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6" ht="23">
+    <row r="35" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6" ht="23">
+    <row r="36" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:6" ht="23">
+    <row r="37" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6" ht="23">
+    <row r="38" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:6" ht="23">
+    <row r="39" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" ht="23">
+    <row r="40" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:6" ht="23">
+    <row r="41" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:6" ht="23">
+    <row r="42" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="D42" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:6" ht="23">
+    <row r="43" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:6" ht="23">
+    <row r="44" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="1:6" ht="23">
+    <row r="45" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:6" ht="23">
+    <row r="46" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:6" ht="23">
+    <row r="47" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="1:6" ht="23">
+    <row r="48" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="1:6" ht="23">
+    <row r="49" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="C49" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="1:6" ht="23">
+    <row r="50" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1424,7 +1437,7 @@
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
     </row>
-    <row r="51" spans="1:6" ht="23">
+    <row r="51" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1432,7 +1445,7 @@
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="1:6" ht="23">
+    <row r="52" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1440,7 +1453,7 @@
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="1:6" ht="23">
+    <row r="53" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1448,7 +1461,7 @@
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="1:6" ht="23">
+    <row r="54" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -1456,7 +1469,7 @@
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="1:6" ht="23">
+    <row r="55" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -1464,7 +1477,7 @@
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
     </row>
-    <row r="56" spans="1:6" ht="23">
+    <row r="56" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -1472,7 +1485,7 @@
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
     </row>
-    <row r="57" spans="1:6" ht="23">
+    <row r="57" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -1480,7 +1493,7 @@
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="1:6" ht="23">
+    <row r="58" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -1488,7 +1501,7 @@
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="1:6" ht="23">
+    <row r="59" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -1496,7 +1509,7 @@
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
     </row>
-    <row r="60" spans="1:6" ht="23">
+    <row r="60" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -1504,7 +1517,7 @@
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="1:6" ht="23">
+    <row r="61" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -1512,7 +1525,7 @@
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
     </row>
-    <row r="62" spans="1:6" ht="23">
+    <row r="62" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -1520,7 +1533,7 @@
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
     </row>
-    <row r="63" spans="1:6" ht="23">
+    <row r="63" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -1528,7 +1541,7 @@
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
     </row>
-    <row r="64" spans="1:6" ht="23">
+    <row r="64" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -1536,7 +1549,7 @@
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
     </row>
-    <row r="65" spans="1:6" ht="23">
+    <row r="65" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -1544,7 +1557,7 @@
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
     </row>
-    <row r="66" spans="1:6" ht="23">
+    <row r="66" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -1552,7 +1565,7 @@
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
     </row>
-    <row r="67" spans="1:6" ht="23">
+    <row r="67" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -1560,7 +1573,7 @@
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
     </row>
-    <row r="68" spans="1:6" ht="23">
+    <row r="68" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -1568,7 +1581,7 @@
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
     </row>
-    <row r="69" spans="1:6" ht="23">
+    <row r="69" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -1576,7 +1589,7 @@
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
     </row>
-    <row r="70" spans="1:6" ht="23">
+    <row r="70" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -1584,7 +1597,7 @@
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
     </row>
-    <row r="71" spans="1:6" ht="23">
+    <row r="71" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -1592,7 +1605,7 @@
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
     </row>
-    <row r="72" spans="1:6" ht="23">
+    <row r="72" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -1600,7 +1613,7 @@
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
     </row>
-    <row r="73" spans="1:6" ht="23">
+    <row r="73" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -1608,7 +1621,7 @@
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
     </row>
-    <row r="74" spans="1:6" ht="23">
+    <row r="74" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -1616,7 +1629,7 @@
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
     </row>
-    <row r="75" spans="1:6" ht="23">
+    <row r="75" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -1624,7 +1637,7 @@
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
     </row>
-    <row r="76" spans="1:6" ht="23">
+    <row r="76" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -1632,7 +1645,7 @@
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
     </row>
-    <row r="77" spans="1:6" ht="23">
+    <row r="77" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -1640,7 +1653,7 @@
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="1:6" ht="23">
+    <row r="78" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -1648,7 +1661,7 @@
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="1:6" ht="23">
+    <row r="79" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -1656,7 +1669,7 @@
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="1:6" ht="23">
+    <row r="80" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -1664,7 +1677,7 @@
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
     </row>
-    <row r="81" spans="1:6" ht="23">
+    <row r="81" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -1672,7 +1685,7 @@
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
     </row>
-    <row r="82" spans="1:6" ht="23">
+    <row r="82" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -1680,7 +1693,7 @@
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="1:6" ht="23">
+    <row r="83" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -1688,7 +1701,7 @@
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="1:6" ht="23">
+    <row r="84" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -1696,7 +1709,7 @@
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
     </row>
-    <row r="85" spans="1:6" ht="23">
+    <row r="85" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -1704,7 +1717,7 @@
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
     </row>
-    <row r="86" spans="1:6" ht="23">
+    <row r="86" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -1712,7 +1725,7 @@
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
     </row>
-    <row r="87" spans="1:6" ht="23">
+    <row r="87" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -1720,7 +1733,7 @@
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
     </row>
-    <row r="88" spans="1:6" ht="23">
+    <row r="88" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -1728,7 +1741,7 @@
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
     </row>
-    <row r="89" spans="1:6" ht="23">
+    <row r="89" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -1736,7 +1749,7 @@
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
     </row>
-    <row r="90" spans="1:6" ht="23">
+    <row r="90" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -1744,7 +1757,7 @@
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
     </row>
-    <row r="91" spans="1:6" ht="23">
+    <row r="91" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -1752,7 +1765,7 @@
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
     </row>
-    <row r="92" spans="1:6" ht="23">
+    <row r="92" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -1760,7 +1773,7 @@
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
     </row>
-    <row r="93" spans="1:6" ht="23">
+    <row r="93" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -1768,7 +1781,7 @@
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
     </row>
-    <row r="94" spans="1:6" ht="23">
+    <row r="94" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -1776,7 +1789,7 @@
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
     </row>
-    <row r="95" spans="1:6" ht="23">
+    <row r="95" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -1784,7 +1797,7 @@
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
     </row>
-    <row r="96" spans="1:6" ht="23">
+    <row r="96" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -1792,7 +1805,7 @@
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
     </row>
-    <row r="97" spans="1:6" ht="23">
+    <row r="97" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -1800,7 +1813,7 @@
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
     </row>
-    <row r="98" spans="1:6" ht="23">
+    <row r="98" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -1808,7 +1821,7 @@
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
     </row>
-    <row r="99" spans="1:6" ht="23">
+    <row r="99" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -1816,7 +1829,7 @@
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
     </row>
-    <row r="100" spans="1:6" ht="23">
+    <row r="100" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -1824,7 +1837,7 @@
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
     </row>
-    <row r="101" spans="1:6" ht="23">
+    <row r="101" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -1832,7 +1845,7 @@
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
     </row>
-    <row r="102" spans="1:6" ht="23">
+    <row r="102" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -1840,7 +1853,7 @@
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
     </row>
-    <row r="103" spans="1:6" ht="23">
+    <row r="103" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -1848,7 +1861,7 @@
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
     </row>
-    <row r="104" spans="1:6" ht="23">
+    <row r="104" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -1856,7 +1869,7 @@
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
     </row>
-    <row r="105" spans="1:6" ht="23">
+    <row r="105" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -1864,7 +1877,7 @@
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
     </row>
-    <row r="106" spans="1:6" ht="23">
+    <row r="106" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -1872,7 +1885,7 @@
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
     </row>
-    <row r="107" spans="1:6" ht="23">
+    <row r="107" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -1880,7 +1893,7 @@
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
     </row>
-    <row r="108" spans="1:6" ht="23">
+    <row r="108" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -1888,7 +1901,7 @@
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
     </row>
-    <row r="109" spans="1:6" ht="23">
+    <row r="109" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -1896,7 +1909,7 @@
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
     </row>
-    <row r="110" spans="1:6" ht="23">
+    <row r="110" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -1904,7 +1917,7 @@
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
     </row>
-    <row r="111" spans="1:6" ht="23">
+    <row r="111" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -1912,7 +1925,7 @@
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
     </row>
-    <row r="112" spans="1:6" ht="23">
+    <row r="112" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -1920,7 +1933,7 @@
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
     </row>
-    <row r="113" spans="1:6" ht="23">
+    <row r="113" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -1928,7 +1941,7 @@
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
     </row>
-    <row r="114" spans="1:6" ht="23">
+    <row r="114" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -1936,7 +1949,7 @@
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
     </row>
-    <row r="115" spans="1:6" ht="23">
+    <row r="115" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -1944,7 +1957,7 @@
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
     </row>
-    <row r="116" spans="1:6" ht="23">
+    <row r="116" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -1952,7 +1965,7 @@
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
     </row>
-    <row r="117" spans="1:6" ht="23">
+    <row r="117" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -1960,7 +1973,7 @@
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
     </row>
-    <row r="118" spans="1:6" ht="23">
+    <row r="118" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -1968,7 +1981,7 @@
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
     </row>
-    <row r="119" spans="1:6" ht="23">
+    <row r="119" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -1976,7 +1989,7 @@
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
     </row>
-    <row r="120" spans="1:6" ht="23">
+    <row r="120" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -1984,7 +1997,7 @@
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
     </row>
-    <row r="121" spans="1:6" ht="23">
+    <row r="121" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -1992,7 +2005,7 @@
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
     </row>
-    <row r="122" spans="1:6" ht="23">
+    <row r="122" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -2000,7 +2013,7 @@
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
     </row>
-    <row r="123" spans="1:6" ht="23">
+    <row r="123" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -2008,7 +2021,7 @@
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
     </row>
-    <row r="124" spans="1:6" ht="23">
+    <row r="124" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -2016,7 +2029,7 @@
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
     </row>
-    <row r="125" spans="1:6" ht="23">
+    <row r="125" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -2024,7 +2037,7 @@
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
     </row>
-    <row r="126" spans="1:6" ht="23">
+    <row r="126" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -2032,7 +2045,7 @@
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
     </row>
-    <row r="127" spans="1:6" ht="23">
+    <row r="127" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -2040,7 +2053,7 @@
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
     </row>
-    <row r="128" spans="1:6" ht="23">
+    <row r="128" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -2048,7 +2061,7 @@
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
     </row>
-    <row r="129" spans="1:6" ht="23">
+    <row r="129" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -2056,7 +2069,7 @@
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
     </row>
-    <row r="130" spans="1:6" ht="23">
+    <row r="130" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -2064,7 +2077,7 @@
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
     </row>
-    <row r="131" spans="1:6" ht="23">
+    <row r="131" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -2072,7 +2085,7 @@
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
     </row>
-    <row r="132" spans="1:6" ht="23">
+    <row r="132" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -2080,7 +2093,7 @@
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
     </row>
-    <row r="133" spans="1:6" ht="23">
+    <row r="133" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -2088,7 +2101,7 @@
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
     </row>
-    <row r="134" spans="1:6" ht="23">
+    <row r="134" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -2096,7 +2109,7 @@
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
     </row>
-    <row r="135" spans="1:6" ht="23">
+    <row r="135" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -2104,7 +2117,7 @@
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
     </row>
-    <row r="136" spans="1:6" ht="23">
+    <row r="136" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -2112,7 +2125,7 @@
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
     </row>
-    <row r="137" spans="1:6" ht="23">
+    <row r="137" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -2120,7 +2133,7 @@
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
     </row>
-    <row r="138" spans="1:6" ht="23">
+    <row r="138" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -2128,7 +2141,7 @@
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
     </row>
-    <row r="139" spans="1:6" ht="23">
+    <row r="139" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -2136,7 +2149,7 @@
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
     </row>
-    <row r="140" spans="1:6" ht="23">
+    <row r="140" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -2144,7 +2157,7 @@
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
     </row>
-    <row r="141" spans="1:6" ht="23">
+    <row r="141" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -2152,7 +2165,7 @@
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
     </row>
-    <row r="142" spans="1:6" ht="23">
+    <row r="142" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -2160,7 +2173,7 @@
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
     </row>
-    <row r="143" spans="1:6" ht="23">
+    <row r="143" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -2168,7 +2181,7 @@
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
     </row>
-    <row r="144" spans="1:6" ht="23">
+    <row r="144" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -2176,7 +2189,7 @@
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
     </row>
-    <row r="145" spans="1:6" ht="23">
+    <row r="145" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -2184,7 +2197,7 @@
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
     </row>
-    <row r="146" spans="1:6" ht="23">
+    <row r="146" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -2192,7 +2205,7 @@
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
     </row>
-    <row r="147" spans="1:6" ht="23">
+    <row r="147" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -2200,7 +2213,7 @@
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
     </row>
-    <row r="148" spans="1:6" ht="23">
+    <row r="148" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -2208,7 +2221,7 @@
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
     </row>
-    <row r="149" spans="1:6" ht="23">
+    <row r="149" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -2216,7 +2229,7 @@
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
     </row>
-    <row r="150" spans="1:6" ht="23">
+    <row r="150" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -2224,7 +2237,7 @@
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
     </row>
-    <row r="151" spans="1:6" ht="23">
+    <row r="151" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -2232,7 +2245,7 @@
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
     </row>
-    <row r="152" spans="1:6" ht="23">
+    <row r="152" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -2240,7 +2253,7 @@
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
     </row>
-    <row r="153" spans="1:6" ht="23">
+    <row r="153" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -2248,7 +2261,7 @@
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
     </row>
-    <row r="154" spans="1:6" ht="23">
+    <row r="154" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -2256,7 +2269,7 @@
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
     </row>
-    <row r="155" spans="1:6" ht="23">
+    <row r="155" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -2264,7 +2277,7 @@
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
     </row>
-    <row r="156" spans="1:6" ht="23">
+    <row r="156" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -2272,7 +2285,7 @@
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
     </row>
-    <row r="157" spans="1:6" ht="23">
+    <row r="157" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -2280,7 +2293,7 @@
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
     </row>
-    <row r="158" spans="1:6" ht="23">
+    <row r="158" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -2288,7 +2301,7 @@
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
     </row>
-    <row r="159" spans="1:6" ht="23">
+    <row r="159" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -2296,7 +2309,7 @@
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
     </row>
-    <row r="160" spans="1:6" ht="23">
+    <row r="160" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -2307,10 +2320,5 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>